--- a/results/pvalue_OFFSIDES_all_pathway_AUROC.xlsx
+++ b/results/pvalue_OFFSIDES_all_pathway_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.009</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>56.049</t>
+          <t>4.778</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.682</t>
+          <t>5.198</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>52.694</t>
+          <t>5.999</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>58.027</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-20.582</t>
+          <t>20.719</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
